--- a/Monarchmart.com_Partho.xlsx
+++ b/Monarchmart.com_Partho.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\partho\SQA new\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" tabRatio="595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" tabRatio="595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
   <si>
     <t>Product Name</t>
   </si>
@@ -97,9 +92,6 @@
   </si>
   <si>
     <t>Commnent</t>
-  </si>
-  <si>
-    <t>Partho Protim Dey</t>
   </si>
   <si>
     <t>Pass</t>
@@ -389,6 +381,12 @@
   </si>
   <si>
     <t>Withdraw</t>
+  </si>
+  <si>
+    <t>Safar Khan Shuvo</t>
+  </si>
+  <si>
+    <t>31/10/2023</t>
   </si>
 </sst>
 </file>
@@ -935,7 +933,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -947,7 +945,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -957,31 +955,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="4" width="28.81640625" customWidth="1"/>
+    <col min="5" max="5" width="38.453125" customWidth="1"/>
+    <col min="6" max="6" width="28.81640625" customWidth="1"/>
+    <col min="7" max="7" width="36.7265625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -993,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="H1" s="24" t="s">
         <v>8</v>
@@ -1042,13 +1040,13 @@
       <c r="AX1" s="1"/>
       <c r="AY1" s="1"/>
     </row>
-    <row r="2" spans="1:52" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
@@ -1058,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="19">
-        <v>44572</v>
+        <v>44937</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5">
         <f>COUNTIF(H7:H38,H2)</f>
@@ -1110,7 +1108,7 @@
       <c r="AX2" s="1"/>
       <c r="AY2" s="1"/>
     </row>
-    <row r="3" spans="1:52" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="3"/>
@@ -1118,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -1127,7 +1125,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="5">
         <f>COUNTIF(H7:H41,H3)</f>
@@ -1185,17 +1183,17 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" s="5">
         <f>COUNTIF(H7:H42,H4)</f>
@@ -1319,7 +1317,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>18</v>
@@ -1373,29 +1371,29 @@
     </row>
     <row r="7" spans="1:52" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>34</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="1"/>
@@ -1434,29 +1432,29 @@
     </row>
     <row r="8" spans="1:52" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>40</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="1"/>
@@ -1495,29 +1493,29 @@
     </row>
     <row r="9" spans="1:52" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>44</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="1"/>
@@ -1556,29 +1554,29 @@
     </row>
     <row r="10" spans="1:52" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="1"/>
@@ -1617,29 +1615,29 @@
     </row>
     <row r="11" spans="1:52" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>55</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="1"/>
@@ -1676,31 +1674,31 @@
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="1:52" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="H12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="1"/>
@@ -1737,31 +1735,31 @@
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="1:52" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="1"/>
@@ -1798,31 +1796,31 @@
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
     </row>
-    <row r="14" spans="1:52" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="1"/>
@@ -1859,31 +1857,31 @@
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
     </row>
-    <row r="15" spans="1:52" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="1"/>
@@ -1920,31 +1918,31 @@
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="1"/>
@@ -1981,31 +1979,31 @@
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="1:50" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="1"/>
@@ -2042,31 +2040,31 @@
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
     </row>
-    <row r="18" spans="1:50" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>81</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="1"/>
@@ -2103,31 +2101,31 @@
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
     </row>
-    <row r="19" spans="1:50" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="1"/>
@@ -2170,31 +2168,31 @@
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
     </row>
-    <row r="20" spans="1:50" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="G20" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="H20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="1"/>
@@ -2237,31 +2235,31 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
     </row>
-    <row r="21" spans="1:50" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="1"/>
@@ -2304,31 +2302,31 @@
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
     </row>
-    <row r="22" spans="1:50" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>103</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="1"/>
@@ -2371,7 +2369,7 @@
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
     </row>
-    <row r="23" spans="1:50" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -2422,7 +2420,7 @@
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
     </row>
-    <row r="24" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2473,7 +2471,7 @@
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -2524,7 +2522,7 @@
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -2575,7 +2573,7 @@
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -2626,7 +2624,7 @@
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -2677,7 +2675,7 @@
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -2729,7 +2727,7 @@
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2781,7 +2779,7 @@
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2833,7 +2831,7 @@
       <c r="AW31" s="1"/>
       <c r="AX31" s="1"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2885,7 +2883,7 @@
       <c r="AW32" s="1"/>
       <c r="AX32" s="1"/>
     </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2937,7 +2935,7 @@
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2989,7 +2987,7 @@
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -3041,7 +3039,7 @@
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -3093,7 +3091,7 @@
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
     </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -3145,7 +3143,7 @@
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -3197,7 +3195,7 @@
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -3249,7 +3247,7 @@
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -3301,7 +3299,7 @@
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
     </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -3353,7 +3351,7 @@
       <c r="AW41" s="1"/>
       <c r="AX41" s="1"/>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -3405,7 +3403,7 @@
       <c r="AW42" s="1"/>
       <c r="AX42" s="1"/>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="21"/>
       <c r="C43" s="5"/>
@@ -3457,7 +3455,7 @@
       <c r="AW43" s="1"/>
       <c r="AX43" s="1"/>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A44" s="20"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3509,7 +3507,7 @@
       <c r="AW44" s="1"/>
       <c r="AX44" s="1"/>
     </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3562,7 +3560,7 @@
       <c r="AX45" s="1"/>
       <c r="AY45" s="1"/>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3615,7 +3613,7 @@
       <c r="AX46" s="1"/>
       <c r="AY46" s="1"/>
     </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3668,7 +3666,7 @@
       <c r="AX47" s="1"/>
       <c r="AY47" s="1"/>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3721,7 +3719,7 @@
       <c r="AX48" s="1"/>
       <c r="AY48" s="1"/>
     </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3774,7 +3772,7 @@
       <c r="AX49" s="1"/>
       <c r="AY49" s="1"/>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3827,7 +3825,7 @@
       <c r="AX50" s="1"/>
       <c r="AY50" s="1"/>
     </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3880,7 +3878,7 @@
       <c r="AX51" s="1"/>
       <c r="AY51" s="1"/>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3933,7 +3931,7 @@
       <c r="AX52" s="1"/>
       <c r="AY52" s="1"/>
     </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3986,7 +3984,7 @@
       <c r="AX53" s="1"/>
       <c r="AY53" s="1"/>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4039,7 +4037,7 @@
       <c r="AX54" s="1"/>
       <c r="AY54" s="1"/>
     </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4092,7 +4090,7 @@
       <c r="AX55" s="1"/>
       <c r="AY55" s="1"/>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4145,7 +4143,7 @@
       <c r="AX56" s="1"/>
       <c r="AY56" s="1"/>
     </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4198,7 +4196,7 @@
       <c r="AX57" s="1"/>
       <c r="AY57" s="1"/>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4251,7 +4249,7 @@
       <c r="AX58" s="1"/>
       <c r="AY58" s="1"/>
     </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4304,7 +4302,7 @@
       <c r="AX59" s="1"/>
       <c r="AY59" s="1"/>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4357,7 +4355,7 @@
       <c r="AX60" s="1"/>
       <c r="AY60" s="1"/>
     </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4410,7 +4408,7 @@
       <c r="AX61" s="1"/>
       <c r="AY61" s="1"/>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4463,7 +4461,7 @@
       <c r="AX62" s="1"/>
       <c r="AY62" s="1"/>
     </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4516,7 +4514,7 @@
       <c r="AX63" s="1"/>
       <c r="AY63" s="1"/>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4569,7 +4567,7 @@
       <c r="AX64" s="1"/>
       <c r="AY64" s="1"/>
     </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4622,7 +4620,7 @@
       <c r="AX65" s="1"/>
       <c r="AY65" s="1"/>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4675,7 +4673,7 @@
       <c r="AX66" s="1"/>
       <c r="AY66" s="1"/>
     </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4728,7 +4726,7 @@
       <c r="AX67" s="1"/>
       <c r="AY67" s="1"/>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4781,7 +4779,7 @@
       <c r="AX68" s="1"/>
       <c r="AY68" s="1"/>
     </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4834,7 +4832,7 @@
       <c r="AX69" s="1"/>
       <c r="AY69" s="1"/>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4887,7 +4885,7 @@
       <c r="AX70" s="1"/>
       <c r="AY70" s="1"/>
     </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4940,7 +4938,7 @@
       <c r="AX71" s="1"/>
       <c r="AY71" s="1"/>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4993,7 +4991,7 @@
       <c r="AX72" s="1"/>
       <c r="AY72" s="1"/>
     </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5046,7 +5044,7 @@
       <c r="AX73" s="1"/>
       <c r="AY73" s="1"/>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5099,7 +5097,7 @@
       <c r="AX74" s="1"/>
       <c r="AY74" s="1"/>
     </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5152,7 +5150,7 @@
       <c r="AX75" s="1"/>
       <c r="AY75" s="1"/>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5205,7 +5203,7 @@
       <c r="AX76" s="1"/>
       <c r="AY76" s="1"/>
     </row>
-    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5258,7 +5256,7 @@
       <c r="AX77" s="1"/>
       <c r="AY77" s="1"/>
     </row>
-    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5311,7 +5309,7 @@
       <c r="AX78" s="1"/>
       <c r="AY78" s="1"/>
     </row>
-    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5364,7 +5362,7 @@
       <c r="AX79" s="1"/>
       <c r="AY79" s="1"/>
     </row>
-    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5417,7 +5415,7 @@
       <c r="AX80" s="1"/>
       <c r="AY80" s="1"/>
     </row>
-    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5470,7 +5468,7 @@
       <c r="AX81" s="1"/>
       <c r="AY81" s="1"/>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5523,7 +5521,7 @@
       <c r="AX82" s="1"/>
       <c r="AY82" s="1"/>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5576,7 +5574,7 @@
       <c r="AX83" s="1"/>
       <c r="AY83" s="1"/>
     </row>
-    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5629,7 +5627,7 @@
       <c r="AX84" s="1"/>
       <c r="AY84" s="1"/>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5682,7 +5680,7 @@
       <c r="AX85" s="1"/>
       <c r="AY85" s="1"/>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5735,7 +5733,7 @@
       <c r="AX86" s="1"/>
       <c r="AY86" s="1"/>
     </row>
-    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5788,7 +5786,7 @@
       <c r="AX87" s="1"/>
       <c r="AY87" s="1"/>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5841,7 +5839,7 @@
       <c r="AX88" s="1"/>
       <c r="AY88" s="1"/>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5894,7 +5892,7 @@
       <c r="AX89" s="1"/>
       <c r="AY89" s="1"/>
     </row>
-    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5947,7 +5945,7 @@
       <c r="AX90" s="1"/>
       <c r="AY90" s="1"/>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6000,7 +5998,7 @@
       <c r="AX91" s="1"/>
       <c r="AY91" s="1"/>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6053,7 +6051,7 @@
       <c r="AX92" s="1"/>
       <c r="AY92" s="1"/>
     </row>
-    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6106,7 +6104,7 @@
       <c r="AX93" s="1"/>
       <c r="AY93" s="1"/>
     </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6159,7 +6157,7 @@
       <c r="AX94" s="1"/>
       <c r="AY94" s="1"/>
     </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6212,7 +6210,7 @@
       <c r="AX95" s="1"/>
       <c r="AY95" s="1"/>
     </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6265,7 +6263,7 @@
       <c r="AX96" s="1"/>
       <c r="AY96" s="1"/>
     </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6318,7 +6316,7 @@
       <c r="AX97" s="1"/>
       <c r="AY97" s="1"/>
     </row>
-    <row r="98" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6371,7 +6369,7 @@
       <c r="AX98" s="1"/>
       <c r="AY98" s="1"/>
     </row>
-    <row r="99" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6424,7 +6422,7 @@
       <c r="AX99" s="1"/>
       <c r="AY99" s="1"/>
     </row>
-    <row r="100" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6477,7 +6475,7 @@
       <c r="AX100" s="1"/>
       <c r="AY100" s="1"/>
     </row>
-    <row r="101" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6530,7 +6528,7 @@
       <c r="AX101" s="1"/>
       <c r="AY101" s="1"/>
     </row>
-    <row r="102" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6583,7 +6581,7 @@
       <c r="AX102" s="1"/>
       <c r="AY102" s="1"/>
     </row>
-    <row r="103" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6636,7 +6634,7 @@
       <c r="AX103" s="1"/>
       <c r="AY103" s="1"/>
     </row>
-    <row r="104" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6689,7 +6687,7 @@
       <c r="AX104" s="1"/>
       <c r="AY104" s="1"/>
     </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -6742,7 +6740,7 @@
       <c r="AX105" s="1"/>
       <c r="AY105" s="1"/>
     </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -6795,7 +6793,7 @@
       <c r="AX106" s="1"/>
       <c r="AY106" s="1"/>
     </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -6848,7 +6846,7 @@
       <c r="AX107" s="1"/>
       <c r="AY107" s="1"/>
     </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6901,7 +6899,7 @@
       <c r="AX108" s="1"/>
       <c r="AY108" s="1"/>
     </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -6954,7 +6952,7 @@
       <c r="AX109" s="1"/>
       <c r="AY109" s="1"/>
     </row>
-    <row r="110" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7007,7 +7005,7 @@
       <c r="AX110" s="1"/>
       <c r="AY110" s="1"/>
     </row>
-    <row r="111" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7060,7 +7058,7 @@
       <c r="AX111" s="1"/>
       <c r="AY111" s="1"/>
     </row>
-    <row r="112" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7113,7 +7111,7 @@
       <c r="AX112" s="1"/>
       <c r="AY112" s="1"/>
     </row>
-    <row r="113" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7166,7 +7164,7 @@
       <c r="AX113" s="1"/>
       <c r="AY113" s="1"/>
     </row>
-    <row r="114" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7219,7 +7217,7 @@
       <c r="AX114" s="1"/>
       <c r="AY114" s="1"/>
     </row>
-    <row r="115" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7272,7 +7270,7 @@
       <c r="AX115" s="1"/>
       <c r="AY115" s="1"/>
     </row>
-    <row r="116" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7325,7 +7323,7 @@
       <c r="AX116" s="1"/>
       <c r="AY116" s="1"/>
     </row>
-    <row r="117" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7378,7 +7376,7 @@
       <c r="AX117" s="1"/>
       <c r="AY117" s="1"/>
     </row>
-    <row r="118" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7431,7 +7429,7 @@
       <c r="AX118" s="1"/>
       <c r="AY118" s="1"/>
     </row>
-    <row r="119" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7484,7 +7482,7 @@
       <c r="AX119" s="1"/>
       <c r="AY119" s="1"/>
     </row>
-    <row r="120" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7537,7 +7535,7 @@
       <c r="AX120" s="1"/>
       <c r="AY120" s="1"/>
     </row>
-    <row r="121" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7590,7 +7588,7 @@
       <c r="AX121" s="1"/>
       <c r="AY121" s="1"/>
     </row>
-    <row r="122" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7643,7 +7641,7 @@
       <c r="AX122" s="1"/>
       <c r="AY122" s="1"/>
     </row>
-    <row r="123" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7696,7 +7694,7 @@
       <c r="AX123" s="1"/>
       <c r="AY123" s="1"/>
     </row>
-    <row r="124" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7749,7 +7747,7 @@
       <c r="AX124" s="1"/>
       <c r="AY124" s="1"/>
     </row>
-    <row r="125" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7802,7 +7800,7 @@
       <c r="AX125" s="1"/>
       <c r="AY125" s="1"/>
     </row>
-    <row r="126" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7855,7 +7853,7 @@
       <c r="AX126" s="1"/>
       <c r="AY126" s="1"/>
     </row>
-    <row r="127" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7908,7 +7906,7 @@
       <c r="AX127" s="1"/>
       <c r="AY127" s="1"/>
     </row>
-    <row r="128" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7961,7 +7959,7 @@
       <c r="AX128" s="1"/>
       <c r="AY128" s="1"/>
     </row>
-    <row r="129" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8014,7 +8012,7 @@
       <c r="AX129" s="1"/>
       <c r="AY129" s="1"/>
     </row>
-    <row r="130" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -8067,7 +8065,7 @@
       <c r="AX130" s="1"/>
       <c r="AY130" s="1"/>
     </row>
-    <row r="131" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8120,7 +8118,7 @@
       <c r="AX131" s="1"/>
       <c r="AY131" s="1"/>
     </row>
-    <row r="132" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8173,7 +8171,7 @@
       <c r="AX132" s="1"/>
       <c r="AY132" s="1"/>
     </row>
-    <row r="133" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8226,7 +8224,7 @@
       <c r="AX133" s="1"/>
       <c r="AY133" s="1"/>
     </row>
-    <row r="134" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8279,7 +8277,7 @@
       <c r="AX134" s="1"/>
       <c r="AY134" s="1"/>
     </row>
-    <row r="135" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8332,7 +8330,7 @@
       <c r="AX135" s="1"/>
       <c r="AY135" s="1"/>
     </row>
-    <row r="136" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8385,7 +8383,7 @@
       <c r="AX136" s="1"/>
       <c r="AY136" s="1"/>
     </row>
-    <row r="137" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8438,7 +8436,7 @@
       <c r="AX137" s="1"/>
       <c r="AY137" s="1"/>
     </row>
-    <row r="138" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8491,7 +8489,7 @@
       <c r="AX138" s="1"/>
       <c r="AY138" s="1"/>
     </row>
-    <row r="139" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8544,7 +8542,7 @@
       <c r="AX139" s="1"/>
       <c r="AY139" s="1"/>
     </row>
-    <row r="140" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8597,7 +8595,7 @@
       <c r="AX140" s="1"/>
       <c r="AY140" s="1"/>
     </row>
-    <row r="141" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8650,7 +8648,7 @@
       <c r="AX141" s="1"/>
       <c r="AY141" s="1"/>
     </row>
-    <row r="142" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8703,7 +8701,7 @@
       <c r="AX142" s="1"/>
       <c r="AY142" s="1"/>
     </row>
-    <row r="143" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -8756,7 +8754,7 @@
       <c r="AX143" s="1"/>
       <c r="AY143" s="1"/>
     </row>
-    <row r="144" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8809,7 +8807,7 @@
       <c r="AX144" s="1"/>
       <c r="AY144" s="1"/>
     </row>
-    <row r="145" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -8862,7 +8860,7 @@
       <c r="AX145" s="1"/>
       <c r="AY145" s="1"/>
     </row>
-    <row r="146" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -8915,7 +8913,7 @@
       <c r="AX146" s="1"/>
       <c r="AY146" s="1"/>
     </row>
-    <row r="147" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -8968,7 +8966,7 @@
       <c r="AX147" s="1"/>
       <c r="AY147" s="1"/>
     </row>
-    <row r="148" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9021,7 +9019,7 @@
       <c r="AX148" s="1"/>
       <c r="AY148" s="1"/>
     </row>
-    <row r="149" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9074,7 +9072,7 @@
       <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
     </row>
-    <row r="150" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -9127,7 +9125,7 @@
       <c r="AX150" s="1"/>
       <c r="AY150" s="1"/>
     </row>
-    <row r="151" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9180,7 +9178,7 @@
       <c r="AX151" s="1"/>
       <c r="AY151" s="1"/>
     </row>
-    <row r="152" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9233,7 +9231,7 @@
       <c r="AX152" s="1"/>
       <c r="AY152" s="1"/>
     </row>
-    <row r="153" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -9286,7 +9284,7 @@
       <c r="AX153" s="1"/>
       <c r="AY153" s="1"/>
     </row>
-    <row r="154" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -9339,7 +9337,7 @@
       <c r="AX154" s="1"/>
       <c r="AY154" s="1"/>
     </row>
-    <row r="155" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -9392,7 +9390,7 @@
       <c r="AX155" s="1"/>
       <c r="AY155" s="1"/>
     </row>
-    <row r="156" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -9445,7 +9443,7 @@
       <c r="AX156" s="1"/>
       <c r="AY156" s="1"/>
     </row>
-    <row r="157" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9498,7 +9496,7 @@
       <c r="AX157" s="1"/>
       <c r="AY157" s="1"/>
     </row>
-    <row r="158" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -9551,7 +9549,7 @@
       <c r="AX158" s="1"/>
       <c r="AY158" s="1"/>
     </row>
-    <row r="159" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9604,7 +9602,7 @@
       <c r="AX159" s="1"/>
       <c r="AY159" s="1"/>
     </row>
-    <row r="160" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -9657,7 +9655,7 @@
       <c r="AX160" s="1"/>
       <c r="AY160" s="1"/>
     </row>
-    <row r="161" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9710,7 +9708,7 @@
       <c r="AX161" s="1"/>
       <c r="AY161" s="1"/>
     </row>
-    <row r="162" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -9763,7 +9761,7 @@
       <c r="AX162" s="1"/>
       <c r="AY162" s="1"/>
     </row>
-    <row r="163" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -9816,7 +9814,7 @@
       <c r="AX163" s="1"/>
       <c r="AY163" s="1"/>
     </row>
-    <row r="164" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -9869,7 +9867,7 @@
       <c r="AX164" s="1"/>
       <c r="AY164" s="1"/>
     </row>
-    <row r="165" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -9922,7 +9920,7 @@
       <c r="AX165" s="1"/>
       <c r="AY165" s="1"/>
     </row>
-    <row r="166" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -9975,7 +9973,7 @@
       <c r="AX166" s="1"/>
       <c r="AY166" s="1"/>
     </row>
-    <row r="167" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -10028,7 +10026,7 @@
       <c r="AX167" s="1"/>
       <c r="AY167" s="1"/>
     </row>
-    <row r="168" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10081,7 +10079,7 @@
       <c r="AX168" s="1"/>
       <c r="AY168" s="1"/>
     </row>
-    <row r="169" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -10134,7 +10132,7 @@
       <c r="AX169" s="1"/>
       <c r="AY169" s="1"/>
     </row>
-    <row r="170" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -10187,7 +10185,7 @@
       <c r="AX170" s="1"/>
       <c r="AY170" s="1"/>
     </row>
-    <row r="171" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -10240,7 +10238,7 @@
       <c r="AX171" s="1"/>
       <c r="AY171" s="1"/>
     </row>
-    <row r="172" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10293,7 +10291,7 @@
       <c r="AX172" s="1"/>
       <c r="AY172" s="1"/>
     </row>
-    <row r="173" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -10346,7 +10344,7 @@
       <c r="AX173" s="1"/>
       <c r="AY173" s="1"/>
     </row>
-    <row r="174" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -10399,7 +10397,7 @@
       <c r="AX174" s="1"/>
       <c r="AY174" s="1"/>
     </row>
-    <row r="175" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -10452,7 +10450,7 @@
       <c r="AX175" s="1"/>
       <c r="AY175" s="1"/>
     </row>
-    <row r="176" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -10505,7 +10503,7 @@
       <c r="AX176" s="1"/>
       <c r="AY176" s="1"/>
     </row>
-    <row r="177" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -10558,7 +10556,7 @@
       <c r="AX177" s="1"/>
       <c r="AY177" s="1"/>
     </row>
-    <row r="178" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -10611,7 +10609,7 @@
       <c r="AX178" s="1"/>
       <c r="AY178" s="1"/>
     </row>
-    <row r="179" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -10664,7 +10662,7 @@
       <c r="AX179" s="1"/>
       <c r="AY179" s="1"/>
     </row>
-    <row r="180" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -10717,7 +10715,7 @@
       <c r="AX180" s="1"/>
       <c r="AY180" s="1"/>
     </row>
-    <row r="181" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -10770,7 +10768,7 @@
       <c r="AX181" s="1"/>
       <c r="AY181" s="1"/>
     </row>
-    <row r="182" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -10823,7 +10821,7 @@
       <c r="AX182" s="1"/>
       <c r="AY182" s="1"/>
     </row>
-    <row r="183" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -10876,7 +10874,7 @@
       <c r="AX183" s="1"/>
       <c r="AY183" s="1"/>
     </row>
-    <row r="184" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -10929,7 +10927,7 @@
       <c r="AX184" s="1"/>
       <c r="AY184" s="1"/>
     </row>
-    <row r="185" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -10982,7 +10980,7 @@
       <c r="AX185" s="1"/>
       <c r="AY185" s="1"/>
     </row>
-    <row r="186" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -11035,7 +11033,7 @@
       <c r="AX186" s="1"/>
       <c r="AY186" s="1"/>
     </row>
-    <row r="187" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -11088,7 +11086,7 @@
       <c r="AX187" s="1"/>
       <c r="AY187" s="1"/>
     </row>
-    <row r="188" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -11141,7 +11139,7 @@
       <c r="AX188" s="1"/>
       <c r="AY188" s="1"/>
     </row>
-    <row r="189" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -11194,7 +11192,7 @@
       <c r="AX189" s="1"/>
       <c r="AY189" s="1"/>
     </row>
-    <row r="190" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -11247,7 +11245,7 @@
       <c r="AX190" s="1"/>
       <c r="AY190" s="1"/>
     </row>
-    <row r="191" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -11300,7 +11298,7 @@
       <c r="AX191" s="1"/>
       <c r="AY191" s="1"/>
     </row>
-    <row r="192" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -11353,7 +11351,7 @@
       <c r="AX192" s="1"/>
       <c r="AY192" s="1"/>
     </row>
-    <row r="193" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -11406,7 +11404,7 @@
       <c r="AX193" s="1"/>
       <c r="AY193" s="1"/>
     </row>
-    <row r="194" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -11459,7 +11457,7 @@
       <c r="AX194" s="1"/>
       <c r="AY194" s="1"/>
     </row>
-    <row r="195" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -11512,7 +11510,7 @@
       <c r="AX195" s="1"/>
       <c r="AY195" s="1"/>
     </row>
-    <row r="196" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -11565,7 +11563,7 @@
       <c r="AX196" s="1"/>
       <c r="AY196" s="1"/>
     </row>
-    <row r="197" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -11618,7 +11616,7 @@
       <c r="AX197" s="1"/>
       <c r="AY197" s="1"/>
     </row>
-    <row r="198" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -11671,7 +11669,7 @@
       <c r="AX198" s="1"/>
       <c r="AY198" s="1"/>
     </row>
-    <row r="199" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -11724,7 +11722,7 @@
       <c r="AX199" s="1"/>
       <c r="AY199" s="1"/>
     </row>
-    <row r="200" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -11777,7 +11775,7 @@
       <c r="AX200" s="1"/>
       <c r="AY200" s="1"/>
     </row>
-    <row r="201" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -11830,7 +11828,7 @@
       <c r="AX201" s="1"/>
       <c r="AY201" s="1"/>
     </row>
-    <row r="202" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -11883,7 +11881,7 @@
       <c r="AX202" s="1"/>
       <c r="AY202" s="1"/>
     </row>
-    <row r="203" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -11936,7 +11934,7 @@
       <c r="AX203" s="1"/>
       <c r="AY203" s="1"/>
     </row>
-    <row r="204" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -11989,7 +11987,7 @@
       <c r="AX204" s="1"/>
       <c r="AY204" s="1"/>
     </row>
-    <row r="205" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -12042,7 +12040,7 @@
       <c r="AX205" s="1"/>
       <c r="AY205" s="1"/>
     </row>
-    <row r="206" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -12095,7 +12093,7 @@
       <c r="AX206" s="1"/>
       <c r="AY206" s="1"/>
     </row>
-    <row r="207" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -12148,7 +12146,7 @@
       <c r="AX207" s="1"/>
       <c r="AY207" s="1"/>
     </row>
-    <row r="208" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -12201,7 +12199,7 @@
       <c r="AX208" s="1"/>
       <c r="AY208" s="1"/>
     </row>
-    <row r="209" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -12254,7 +12252,7 @@
       <c r="AX209" s="1"/>
       <c r="AY209" s="1"/>
     </row>
-    <row r="210" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -12307,7 +12305,7 @@
       <c r="AX210" s="1"/>
       <c r="AY210" s="1"/>
     </row>
-    <row r="211" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -12360,7 +12358,7 @@
       <c r="AX211" s="1"/>
       <c r="AY211" s="1"/>
     </row>
-    <row r="212" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -12413,7 +12411,7 @@
       <c r="AX212" s="1"/>
       <c r="AY212" s="1"/>
     </row>
-    <row r="213" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -12466,7 +12464,7 @@
       <c r="AX213" s="1"/>
       <c r="AY213" s="1"/>
     </row>
-    <row r="214" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -12519,7 +12517,7 @@
       <c r="AX214" s="1"/>
       <c r="AY214" s="1"/>
     </row>
-    <row r="215" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -12572,7 +12570,7 @@
       <c r="AX215" s="1"/>
       <c r="AY215" s="1"/>
     </row>
-    <row r="216" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -12625,7 +12623,7 @@
       <c r="AX216" s="1"/>
       <c r="AY216" s="1"/>
     </row>
-    <row r="217" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -12678,7 +12676,7 @@
       <c r="AX217" s="1"/>
       <c r="AY217" s="1"/>
     </row>
-    <row r="218" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -12731,7 +12729,7 @@
       <c r="AX218" s="1"/>
       <c r="AY218" s="1"/>
     </row>
-    <row r="219" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -12784,7 +12782,7 @@
       <c r="AX219" s="1"/>
       <c r="AY219" s="1"/>
     </row>
-    <row r="220" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -12837,7 +12835,7 @@
       <c r="AX220" s="1"/>
       <c r="AY220" s="1"/>
     </row>
-    <row r="221" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -12890,7 +12888,7 @@
       <c r="AX221" s="1"/>
       <c r="AY221" s="1"/>
     </row>
-    <row r="222" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -12943,7 +12941,7 @@
       <c r="AX222" s="1"/>
       <c r="AY222" s="1"/>
     </row>
-    <row r="223" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -12996,7 +12994,7 @@
       <c r="AX223" s="1"/>
       <c r="AY223" s="1"/>
     </row>
-    <row r="224" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -13049,7 +13047,7 @@
       <c r="AX224" s="1"/>
       <c r="AY224" s="1"/>
     </row>
-    <row r="225" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -13102,7 +13100,7 @@
       <c r="AX225" s="1"/>
       <c r="AY225" s="1"/>
     </row>
-    <row r="226" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -13155,7 +13153,7 @@
       <c r="AX226" s="1"/>
       <c r="AY226" s="1"/>
     </row>
-    <row r="227" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -13208,7 +13206,7 @@
       <c r="AX227" s="1"/>
       <c r="AY227" s="1"/>
     </row>
-    <row r="228" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -13261,7 +13259,7 @@
       <c r="AX228" s="1"/>
       <c r="AY228" s="1"/>
     </row>
-    <row r="229" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -13314,7 +13312,7 @@
       <c r="AX229" s="1"/>
       <c r="AY229" s="1"/>
     </row>
-    <row r="230" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -13367,7 +13365,7 @@
       <c r="AX230" s="1"/>
       <c r="AY230" s="1"/>
     </row>
-    <row r="231" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -13420,7 +13418,7 @@
       <c r="AX231" s="1"/>
       <c r="AY231" s="1"/>
     </row>
-    <row r="232" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -13473,7 +13471,7 @@
       <c r="AX232" s="1"/>
       <c r="AY232" s="1"/>
     </row>
-    <row r="233" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -13526,7 +13524,7 @@
       <c r="AX233" s="1"/>
       <c r="AY233" s="1"/>
     </row>
-    <row r="234" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -13579,7 +13577,7 @@
       <c r="AX234" s="1"/>
       <c r="AY234" s="1"/>
     </row>
-    <row r="235" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -13632,7 +13630,7 @@
       <c r="AX235" s="1"/>
       <c r="AY235" s="1"/>
     </row>
-    <row r="236" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -13685,7 +13683,7 @@
       <c r="AX236" s="1"/>
       <c r="AY236" s="1"/>
     </row>
-    <row r="237" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -13738,7 +13736,7 @@
       <c r="AX237" s="1"/>
       <c r="AY237" s="1"/>
     </row>
-    <row r="238" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -13791,7 +13789,7 @@
       <c r="AX238" s="1"/>
       <c r="AY238" s="1"/>
     </row>
-    <row r="239" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -13844,7 +13842,7 @@
       <c r="AX239" s="1"/>
       <c r="AY239" s="1"/>
     </row>
-    <row r="240" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -13897,7 +13895,7 @@
       <c r="AX240" s="1"/>
       <c r="AY240" s="1"/>
     </row>
-    <row r="241" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -13950,7 +13948,7 @@
       <c r="AX241" s="1"/>
       <c r="AY241" s="1"/>
     </row>
-    <row r="242" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -14003,7 +14001,7 @@
       <c r="AX242" s="1"/>
       <c r="AY242" s="1"/>
     </row>
-    <row r="243" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -14056,7 +14054,7 @@
       <c r="AX243" s="1"/>
       <c r="AY243" s="1"/>
     </row>
-    <row r="244" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -14109,7 +14107,7 @@
       <c r="AX244" s="1"/>
       <c r="AY244" s="1"/>
     </row>
-    <row r="245" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -14162,7 +14160,7 @@
       <c r="AX245" s="1"/>
       <c r="AY245" s="1"/>
     </row>
-    <row r="246" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -14215,7 +14213,7 @@
       <c r="AX246" s="1"/>
       <c r="AY246" s="1"/>
     </row>
-    <row r="247" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -14268,7 +14266,7 @@
       <c r="AX247" s="1"/>
       <c r="AY247" s="1"/>
     </row>
-    <row r="248" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -14321,7 +14319,7 @@
       <c r="AX248" s="1"/>
       <c r="AY248" s="1"/>
     </row>
-    <row r="249" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -14374,7 +14372,7 @@
       <c r="AX249" s="1"/>
       <c r="AY249" s="1"/>
     </row>
-    <row r="250" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -14427,7 +14425,7 @@
       <c r="AX250" s="1"/>
       <c r="AY250" s="1"/>
     </row>
-    <row r="251" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -14480,7 +14478,7 @@
       <c r="AX251" s="1"/>
       <c r="AY251" s="1"/>
     </row>
-    <row r="252" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -14533,7 +14531,7 @@
       <c r="AX252" s="1"/>
       <c r="AY252" s="1"/>
     </row>
-    <row r="253" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -14586,7 +14584,7 @@
       <c r="AX253" s="1"/>
       <c r="AY253" s="1"/>
     </row>
-    <row r="254" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -14639,7 +14637,7 @@
       <c r="AX254" s="1"/>
       <c r="AY254" s="1"/>
     </row>
-    <row r="255" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -14692,7 +14690,7 @@
       <c r="AX255" s="1"/>
       <c r="AY255" s="1"/>
     </row>
-    <row r="256" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -14745,7 +14743,7 @@
       <c r="AX256" s="1"/>
       <c r="AY256" s="1"/>
     </row>
-    <row r="257" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -14798,7 +14796,7 @@
       <c r="AX257" s="1"/>
       <c r="AY257" s="1"/>
     </row>
-    <row r="258" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -14851,7 +14849,7 @@
       <c r="AX258" s="1"/>
       <c r="AY258" s="1"/>
     </row>
-    <row r="259" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -14904,7 +14902,7 @@
       <c r="AX259" s="1"/>
       <c r="AY259" s="1"/>
     </row>
-    <row r="260" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -14957,7 +14955,7 @@
       <c r="AX260" s="1"/>
       <c r="AY260" s="1"/>
     </row>
-    <row r="261" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -15010,7 +15008,7 @@
       <c r="AX261" s="1"/>
       <c r="AY261" s="1"/>
     </row>
-    <row r="262" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -15063,7 +15061,7 @@
       <c r="AX262" s="1"/>
       <c r="AY262" s="1"/>
     </row>
-    <row r="263" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -15116,7 +15114,7 @@
       <c r="AX263" s="1"/>
       <c r="AY263" s="1"/>
     </row>
-    <row r="264" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -15169,7 +15167,7 @@
       <c r="AX264" s="1"/>
       <c r="AY264" s="1"/>
     </row>
-    <row r="265" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -15222,7 +15220,7 @@
       <c r="AX265" s="1"/>
       <c r="AY265" s="1"/>
     </row>
-    <row r="266" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -15275,7 +15273,7 @@
       <c r="AX266" s="1"/>
       <c r="AY266" s="1"/>
     </row>
-    <row r="267" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -15328,7 +15326,7 @@
       <c r="AX267" s="1"/>
       <c r="AY267" s="1"/>
     </row>
-    <row r="268" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -15381,7 +15379,7 @@
       <c r="AX268" s="1"/>
       <c r="AY268" s="1"/>
     </row>
-    <row r="269" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -15434,7 +15432,7 @@
       <c r="AX269" s="1"/>
       <c r="AY269" s="1"/>
     </row>
-    <row r="270" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -15487,7 +15485,7 @@
       <c r="AX270" s="1"/>
       <c r="AY270" s="1"/>
     </row>
-    <row r="271" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -15540,7 +15538,7 @@
       <c r="AX271" s="1"/>
       <c r="AY271" s="1"/>
     </row>
-    <row r="272" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -15593,7 +15591,7 @@
       <c r="AX272" s="1"/>
       <c r="AY272" s="1"/>
     </row>
-    <row r="273" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -15646,7 +15644,7 @@
       <c r="AX273" s="1"/>
       <c r="AY273" s="1"/>
     </row>
-    <row r="274" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -15699,7 +15697,7 @@
       <c r="AX274" s="1"/>
       <c r="AY274" s="1"/>
     </row>
-    <row r="275" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -15752,7 +15750,7 @@
       <c r="AX275" s="1"/>
       <c r="AY275" s="1"/>
     </row>
-    <row r="276" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -15805,7 +15803,7 @@
       <c r="AX276" s="1"/>
       <c r="AY276" s="1"/>
     </row>
-    <row r="277" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -15858,7 +15856,7 @@
       <c r="AX277" s="1"/>
       <c r="AY277" s="1"/>
     </row>
-    <row r="278" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -15910,7 +15908,7 @@
       <c r="AX278" s="1"/>
       <c r="AY278" s="1"/>
     </row>
-    <row r="279" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -15962,7 +15960,7 @@
       <c r="AX279" s="1"/>
       <c r="AY279" s="1"/>
     </row>
-    <row r="280" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -16014,7 +16012,7 @@
       <c r="AX280" s="1"/>
       <c r="AY280" s="1"/>
     </row>
-    <row r="281" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -16066,7 +16064,7 @@
       <c r="AX281" s="1"/>
       <c r="AY281" s="1"/>
     </row>
-    <row r="282" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -16118,7 +16116,7 @@
       <c r="AX282" s="1"/>
       <c r="AY282" s="1"/>
     </row>
-    <row r="283" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
